--- a/NHLBI.xlsx
+++ b/NHLBI.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Comp controls" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="99">
   <si>
     <t>Marker</t>
   </si>
@@ -271,28 +271,52 @@
     <t>4:Compensation Controls_CCR6 PE-Cy7 G780 Stained Control.fcs</t>
   </si>
   <si>
-    <t>G560</t>
-  </si>
-  <si>
-    <t>B710</t>
-  </si>
-  <si>
-    <t>G780</t>
-  </si>
-  <si>
-    <t>B515</t>
-  </si>
-  <si>
-    <t>R660</t>
-  </si>
-  <si>
-    <t>R780</t>
-  </si>
-  <si>
-    <t>V450</t>
-  </si>
-  <si>
-    <t>V545</t>
+    <t>LIVE GREEN:B515</t>
+  </si>
+  <si>
+    <t>CD197:G560</t>
+  </si>
+  <si>
+    <t>CD4:B710</t>
+  </si>
+  <si>
+    <t>CD45RA:G780</t>
+  </si>
+  <si>
+    <t>CD194:G780</t>
+  </si>
+  <si>
+    <t>CD27:G780</t>
+  </si>
+  <si>
+    <t>CD11c:G780</t>
+  </si>
+  <si>
+    <t>CD196:G780</t>
+  </si>
+  <si>
+    <t>CD38:R660</t>
+  </si>
+  <si>
+    <t>CD127:R660</t>
+  </si>
+  <si>
+    <t>CD8:R780</t>
+  </si>
+  <si>
+    <t>CD45RO:R780</t>
+  </si>
+  <si>
+    <t>CD20:R780</t>
+  </si>
+  <si>
+    <t>CD3+19+20:R780</t>
+  </si>
+  <si>
+    <t>CD3:V450</t>
+  </si>
+  <si>
+    <t>HLA-DR:V545</t>
   </si>
 </sst>
 </file>
@@ -305,6 +329,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -966,7 +991,7 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -989,7 +1014,7 @@
         <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1012,7 +1037,7 @@
         <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1035,7 +1060,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1058,7 +1083,7 @@
         <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1081,7 +1106,7 @@
         <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1104,7 +1129,7 @@
         <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1127,7 +1152,7 @@
         <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1150,7 +1175,7 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1173,7 +1198,7 @@
         <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1196,7 +1221,7 @@
         <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1219,7 +1244,7 @@
         <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1242,7 +1267,7 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1265,7 +1290,7 @@
         <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1288,7 +1313,7 @@
         <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1311,7 +1336,7 @@
         <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>

--- a/NHLBI.xlsx
+++ b/NHLBI.xlsx
@@ -265,12 +265,6 @@
     <t>Compensation Controls_V545 Stained Control.fcs</t>
   </si>
   <si>
-    <t>6:Compensation Controls_CD11c PE-Cy7 G780 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>4:Compensation Controls_CCR6 PE-Cy7 G780 Stained Control.fcs</t>
-  </si>
-  <si>
     <t>LIVE GREEN:B515</t>
   </si>
   <si>
@@ -317,6 +311,12 @@
   </si>
   <si>
     <t>HLA-DR:V545</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD11c PE-Cy7 G780 Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CCR6 PE-Cy7 G780 Stained Control.fcs</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -991,7 +991,7 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1014,7 +1014,7 @@
         <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1037,7 +1037,7 @@
         <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1060,7 +1060,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1083,7 +1083,7 @@
         <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1106,7 +1106,7 @@
         <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1126,10 +1126,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1175,7 +1175,7 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1198,7 +1198,7 @@
         <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1221,7 +1221,7 @@
         <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1244,7 +1244,7 @@
         <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1267,7 +1267,7 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1290,7 +1290,7 @@
         <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1313,7 +1313,7 @@
         <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1336,7 +1336,7 @@
         <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>

--- a/NHLBI.xlsx
+++ b/NHLBI.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500"/>
@@ -223,100 +223,100 @@
     <t>1369_3_Thelper_E09.fcs</t>
   </si>
   <si>
-    <t>Compensation Controls_B515 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_B710 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CCR4 PE-Cy7 G780 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD8 APC-H7 R780 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD20 APC-H7 R780 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD27 PE-Cy7 G780 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD38 APC R660 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD45RA PE-Cy7 G780 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD45RO APC-H7 R780 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD127 AF647 R660 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_G560 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_Lineage APC-H7 R780 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_V450 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_V545 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>LIVE GREEN:B515</t>
-  </si>
-  <si>
-    <t>CD197:G560</t>
-  </si>
-  <si>
-    <t>CD4:B710</t>
-  </si>
-  <si>
-    <t>CD45RA:G780</t>
-  </si>
-  <si>
-    <t>CD194:G780</t>
-  </si>
-  <si>
-    <t>CD27:G780</t>
-  </si>
-  <si>
-    <t>CD11c:G780</t>
-  </si>
-  <si>
-    <t>CD196:G780</t>
-  </si>
-  <si>
-    <t>CD38:R660</t>
-  </si>
-  <si>
-    <t>CD127:R660</t>
-  </si>
-  <si>
-    <t>CD8:R780</t>
-  </si>
-  <si>
-    <t>CD45RO:R780</t>
-  </si>
-  <si>
-    <t>CD20:R780</t>
-  </si>
-  <si>
-    <t>CD3+19+20:R780</t>
-  </si>
-  <si>
-    <t>CD3:V450</t>
-  </si>
-  <si>
-    <t>HLA-DR:V545</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD11c PE-Cy7 G780 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CCR6 PE-Cy7 G780 Stained Control.fcs</t>
+    <t>LIVE GREEN:B515-A</t>
+  </si>
+  <si>
+    <t>CD197:G560-A</t>
+  </si>
+  <si>
+    <t>CD4:B710-A</t>
+  </si>
+  <si>
+    <t>CD45RA:G780-A</t>
+  </si>
+  <si>
+    <t>CD194:G780-A</t>
+  </si>
+  <si>
+    <t>CD27:G780-A</t>
+  </si>
+  <si>
+    <t>CD11c:G780-A</t>
+  </si>
+  <si>
+    <t>CD196:G780-A</t>
+  </si>
+  <si>
+    <t>CD38:R660-A</t>
+  </si>
+  <si>
+    <t>CD127:R660-A</t>
+  </si>
+  <si>
+    <t>CD8:R780-A</t>
+  </si>
+  <si>
+    <t>CD45RO:R780-A</t>
+  </si>
+  <si>
+    <t>CD20:R780-A</t>
+  </si>
+  <si>
+    <t>CD3+19+20:R780-A</t>
+  </si>
+  <si>
+    <t>CD3:V450-A</t>
+  </si>
+  <si>
+    <t>HLA-DR:V545-A</t>
+  </si>
+  <si>
+    <t>Compensation Controls_B515-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_G560-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_B710-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD45RA PE-Cy7 G780-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CCR4 PE-Cy7 G780-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD27 PE-Cy7 G780-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD11c PE-Cy7 G780-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CCR6 PE-Cy7 G780-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD38 APC R660-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD127 AF647 R660-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD8 APC-H7 R780-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD45RO APC-H7 R780-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD20 APC-H7 R780-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_Lineage APC-H7 R780-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_V450-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_V545-A Stained Control.fcs</t>
   </si>
 </sst>
 </file>
@@ -329,7 +329,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,8 +427,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -528,7 +531,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -564,6 +567,8 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -599,6 +604,8 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -931,7 +938,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -988,10 +995,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1011,10 +1018,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1034,10 +1041,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1057,10 +1064,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1080,10 +1087,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1103,10 +1110,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
         <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1126,10 +1133,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1149,10 +1156,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1172,10 +1179,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1195,10 +1202,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
         <v>76</v>
-      </c>
-      <c r="B13" t="s">
-        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1218,10 +1225,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1241,10 +1248,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1264,10 +1271,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1287,10 +1294,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1310,10 +1317,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1333,10 +1340,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
